--- a/Kiểm tra phân quyền đăng nhập link.xlsx
+++ b/Kiểm tra phân quyền đăng nhập link.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC12570-E1FA-4EBE-9F91-3EE3FD37867E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223DB6AB-DB10-406E-94E2-76D43467AAFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="108">
   <si>
     <t xml:space="preserve">Link </t>
   </si>
@@ -329,13 +329,28 @@
   </si>
   <si>
     <t>Không tồn tại</t>
+  </si>
+  <si>
+    <t>Chặn</t>
+  </si>
+  <si>
+    <t>Chỉ nhân viên có nút thanh toán, chủ chi nhánh và admin không có nút thanh toán</t>
+  </si>
+  <si>
+    <t>Không hiểu ý nghĩa hàm</t>
+  </si>
+  <si>
+    <t>Xem hóa đơn đã duyệt không thấy thông tin khi ấn nút chi tiết</t>
+  </si>
+  <si>
+    <t>Xem thông tin khách hàng còn chưa chặn đổi mật khẩu theo phân quyền</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +364,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +419,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -400,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -408,15 +446,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,6 +708,138 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>792743</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA306D91-E3E4-430A-BD78-FD857A51EAE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="15668625"/>
+          <a:ext cx="6422017" cy="2638425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184518</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D243A4-3F06-45B7-8BEF-4E64CE0918CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886577" y="15630525"/>
+          <a:ext cx="6166216" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>167234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFBD5F9-CE3F-4283-8B30-58A11CCC2B81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13392151" y="15573376"/>
+          <a:ext cx="5848350" cy="2691358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -929,16 +1108,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="84.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -2272,39 +2451,39 @@
       <c r="A57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="s">
         <v>19</v>
@@ -2383,13 +2562,13 @@
       <c r="A63" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
@@ -2444,88 +2623,304 @@
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="B69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="B70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="B71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="B72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="B74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="B76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="B77" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="B78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="B79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B103:F103"/>
     <mergeCell ref="B67:F67"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="B57:F57"/>

--- a/Kiểm tra phân quyền đăng nhập link.xlsx
+++ b/Kiểm tra phân quyền đăng nhập link.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223DB6AB-DB10-406E-94E2-76D43467AAFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB52E0D9-B96B-4539-A2DE-A78940E738E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="109">
   <si>
     <t xml:space="preserve">Link </t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>Xem thông tin khách hàng còn chưa chặn đổi mật khẩu theo phân quyền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chặn </t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -446,6 +449,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,15 +467,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,8 +1115,8 @@
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2451,39 +2455,39 @@
       <c r="A57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="s">
         <v>19</v>
@@ -2562,13 +2566,13 @@
       <c r="A63" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
@@ -2623,40 +2627,40 @@
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="10" t="s">
+      <c r="B68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F68" s="5" t="s">
@@ -2667,16 +2671,16 @@
       <c r="A69" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="B69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F69" s="5" t="s">
@@ -2687,16 +2691,16 @@
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="10" t="s">
+      <c r="B70" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F70" s="5" t="s">
@@ -2707,16 +2711,16 @@
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="B71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F71" s="5" t="s">
@@ -2727,16 +2731,16 @@
       <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="10" t="s">
+      <c r="B72" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -2747,16 +2751,16 @@
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="10" t="s">
+      <c r="B73" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F73" s="5" t="s">
@@ -2767,16 +2771,16 @@
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="10" t="s">
+      <c r="B74" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F74" s="5" t="s">
@@ -2793,10 +2797,10 @@
       <c r="C75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="14" t="s">
+      <c r="D75" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F75" s="5" t="s">
@@ -2807,17 +2811,17 @@
       <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>29</v>
+      <c r="B76" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>103</v>
@@ -2827,16 +2831,16 @@
       <c r="A77" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E77" s="10" t="s">
+      <c r="B77" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F77" s="5" t="s">
@@ -2847,16 +2851,16 @@
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E78" s="10" t="s">
+      <c r="B78" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F78" s="5" t="s">
@@ -2867,16 +2871,16 @@
       <c r="A79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E79" s="10" t="s">
+      <c r="B79" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F79" s="5" t="s">
@@ -2884,36 +2888,36 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="8" t="s">
         <v>107</v>
       </c>
     </row>

--- a/Kiểm tra phân quyền đăng nhập link.xlsx
+++ b/Kiểm tra phân quyền đăng nhập link.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB52E0D9-B96B-4539-A2DE-A78940E738E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD474AF-D02E-4D74-BEDE-1DC8F6535617}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -468,6 +467,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,7 +1116,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74:E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2455,39 +2455,39 @@
       <c r="A57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="s">
         <v>19</v>
@@ -2566,13 +2566,13 @@
       <c r="A63" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
@@ -2627,41 +2627,41 @@
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>29</v>
+      <c r="B68" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>103</v>
@@ -2671,17 +2671,17 @@
       <c r="A69" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>29</v>
+      <c r="B69" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>103</v>
@@ -2691,17 +2691,17 @@
       <c r="A70" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>29</v>
+      <c r="B70" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>103</v>
@@ -2711,17 +2711,17 @@
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>29</v>
+      <c r="B71" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>103</v>
@@ -2731,17 +2731,17 @@
       <c r="A72" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>29</v>
+      <c r="B72" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>103</v>
@@ -2751,16 +2751,16 @@
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F73" s="5" t="s">
@@ -2771,17 +2771,17 @@
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>29</v>
+      <c r="B74" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>103</v>
@@ -2797,10 +2797,10 @@
       <c r="C75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F75" s="5" t="s">
@@ -2811,16 +2811,16 @@
       <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="9" t="s">
+      <c r="C76" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F76" s="5" t="s">
@@ -2831,16 +2831,16 @@
       <c r="A77" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F77" s="5" t="s">
@@ -2851,16 +2851,16 @@
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F78" s="5" t="s">
@@ -2871,16 +2871,16 @@
       <c r="A79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F79" s="5" t="s">
@@ -2888,36 +2888,36 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>107</v>
       </c>
     </row>
